--- a/files/system/import-leads-sample.xlsx
+++ b/files/system/import-leads-sample.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36462059-8B7F-4E19-91E9-A8B7536A7BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,9 +62,6 @@
     <t>New Mexico</t>
   </si>
   <si>
-    <t>ashtoncox.demo.com</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -82,9 +80,6 @@
     <t>Erie Rhode Island</t>
   </si>
   <si>
-    <t>bradleygreer.demo.com</t>
-  </si>
-  <si>
     <t>AED</t>
   </si>
   <si>
@@ -190,29 +185,35 @@
     <t>Site</t>
   </si>
   <si>
-    <t>lead1@demo.com</t>
-  </si>
-  <si>
-    <t>lead3@demo.com</t>
-  </si>
-  <si>
-    <t>lead4@demo.com</t>
-  </si>
-  <si>
-    <t>lead5@demo.com</t>
-  </si>
-  <si>
-    <t>lead6@demo.com</t>
-  </si>
-  <si>
-    <t>lead2@demo.com</t>
+    <t>lead1@bytescrafter.net</t>
+  </si>
+  <si>
+    <t>lead2@bytescrafter.net</t>
+  </si>
+  <si>
+    <t>lead3@bytescrafter.net</t>
+  </si>
+  <si>
+    <t>lead4@bytescrafter.net</t>
+  </si>
+  <si>
+    <t>lead5@bytescrafter.net</t>
+  </si>
+  <si>
+    <t>lead6@bytescrafter.net</t>
+  </si>
+  <si>
+    <t>ashtoncox.bytescrafter.net</t>
+  </si>
+  <si>
+    <t>bradleygreer.bytescrafter.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +251,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,18 +277,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -371,6 +384,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,19 +657,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>1</v>
@@ -660,19 +707,19 @@
         <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>12</v>
@@ -693,86 +740,86 @@
         <v>123456789</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5">
         <v>8219</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="5">
         <v>1234</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="5">
         <v>123456789</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N3" s="5">
         <v>8219</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -793,86 +840,86 @@
         <v>123456789</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N4" s="5">
         <v>8219</v>
       </c>
       <c r="O4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="5">
         <v>1234</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" s="5">
         <v>123456789</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N5" s="5">
         <v>8219</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -893,70 +940,73 @@
         <v>123456789</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="N6" s="5">
         <v>8219</v>
       </c>
       <c r="O6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>62</v>
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="5">
         <v>1234</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="5">
         <v>123456789</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N7" s="5">
         <v>8219</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{23B83B83-A2C7-4A1C-B814-0F2A6C73DD80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>